--- a/data/dataTest.xlsx
+++ b/data/dataTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\YapeAPIS\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\YAPE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05E2D31-BB06-423F-AA54-F6E48733B16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A674B6A3-5341-4912-9F94-BC245BD88B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2220" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -35,15 +35,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>1abc123</t>
-  </si>
-  <si>
-    <t>123abcd</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>idBooking</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>apellido</t>
+  </si>
+  <si>
+    <t>ad457cbe894c6c2</t>
+  </si>
+  <si>
+    <t>3973</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>26dad40446c6210</t>
+  </si>
+  <si>
+    <t>57d1c1fb68e00f2</t>
+  </si>
+  <si>
+    <t>9007ed88566d0b5</t>
+  </si>
+  <si>
+    <t>e75517444f656a0</t>
+  </si>
+  <si>
+    <t>504f2b11b0e5f7d</t>
+  </si>
+  <si>
+    <t>5ed4bbcdef83180</t>
+  </si>
+  <si>
+    <t>e0f3fd84aef5105</t>
   </si>
 </sst>
 </file>
@@ -402,28 +438,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1588F5BE-F85E-4E0B-82FC-06D01FC53CA8}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" style="1" width="11.42578125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="16.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -431,21 +484,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005BBDBF06F7BC974CBB85AC25FE00AFB5" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6a69697652624632dc096f01c805c491">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b2b1fa7a59e354d7f595b7732424404">
     <xsd:element name="properties">
@@ -559,24 +597,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0894F575-CBD1-4500-A28A-2C2DF44A3F5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7EDABB2-065E-4DA3-AF0A-B938AC9E3F4C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89FB17FC-A2B4-4B02-BF51-36A1DCC1E90B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -590,4 +626,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7EDABB2-065E-4DA3-AF0A-B938AC9E3F4C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0894F575-CBD1-4500-A28A-2C2DF44A3F5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/dataTest.xlsx
+++ b/data/dataTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\YAPE\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\YAPE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A674B6A3-5341-4912-9F94-BC245BD88B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A412E3BF-B7B0-4179-B6D1-B1CE83B211F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2220" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="195" yWindow="75" windowWidth="20295" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>token</t>
   </si>
@@ -49,37 +49,25 @@
     <t>apellido</t>
   </si>
   <si>
-    <t>ad457cbe894c6c2</t>
-  </si>
-  <si>
-    <t>3973</t>
-  </si>
-  <si>
     <t>Jim</t>
   </si>
   <si>
+    <t>5140</t>
+  </si>
+  <si>
+    <t>b5aaada4c13b0bb</t>
+  </si>
+  <si>
+    <t>7806</t>
+  </si>
+  <si>
     <t>Brown</t>
   </si>
   <si>
-    <t>26dad40446c6210</t>
-  </si>
-  <si>
-    <t>57d1c1fb68e00f2</t>
-  </si>
-  <si>
-    <t>9007ed88566d0b5</t>
-  </si>
-  <si>
-    <t>e75517444f656a0</t>
-  </si>
-  <si>
-    <t>504f2b11b0e5f7d</t>
-  </si>
-  <si>
-    <t>5ed4bbcdef83180</t>
-  </si>
-  <si>
-    <t>e0f3fd84aef5105</t>
+    <t>72e0d882d0aac16</t>
+  </si>
+  <si>
+    <t>8411</t>
   </si>
 </sst>
 </file>
@@ -441,7 +429,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,16 +454,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -484,6 +472,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005BBDBF06F7BC974CBB85AC25FE00AFB5" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6a69697652624632dc096f01c805c491">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b2b1fa7a59e354d7f595b7732424404">
     <xsd:element name="properties">
@@ -597,22 +600,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0894F575-CBD1-4500-A28A-2C2DF44A3F5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7EDABB2-065E-4DA3-AF0A-B938AC9E3F4C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89FB17FC-A2B4-4B02-BF51-36A1DCC1E90B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -626,21 +631,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7EDABB2-065E-4DA3-AF0A-B938AC9E3F4C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0894F575-CBD1-4500-A28A-2C2DF44A3F5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/dataTest.xlsx
+++ b/data/dataTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\YAPE\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\YAPE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A412E3BF-B7B0-4179-B6D1-B1CE83B211F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D2E4C5-81D6-4789-A7E1-448E9147B811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="75" windowWidth="20295" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2220" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
   <si>
     <t>token</t>
   </si>
@@ -49,25 +49,64 @@
     <t>apellido</t>
   </si>
   <si>
+    <t>e65716e488ddce3</t>
+  </si>
+  <si>
+    <t>11836</t>
+  </si>
+  <si>
     <t>Jim</t>
   </si>
   <si>
-    <t>5140</t>
-  </si>
-  <si>
-    <t>b5aaada4c13b0bb</t>
-  </si>
-  <si>
-    <t>7806</t>
-  </si>
-  <si>
     <t>Brown</t>
   </si>
   <si>
-    <t>72e0d882d0aac16</t>
-  </si>
-  <si>
-    <t>8411</t>
+    <t>025e0823c2215c4</t>
+  </si>
+  <si>
+    <t>2320</t>
+  </si>
+  <si>
+    <t>dd53cf4a7d88460</t>
+  </si>
+  <si>
+    <t>3035</t>
+  </si>
+  <si>
+    <t>5bfbb4fb836caf1</t>
+  </si>
+  <si>
+    <t>4796</t>
+  </si>
+  <si>
+    <t>19b2b2a09a8c098</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>6edb9283bbf3757</t>
+  </si>
+  <si>
+    <t>1959</t>
+  </si>
+  <si>
+    <t>386c96fcbfc28f4</t>
+  </si>
+  <si>
+    <t>3108</t>
+  </si>
+  <si>
+    <t>a16e03e2c7b4c09</t>
+  </si>
+  <si>
+    <t>3875</t>
+  </si>
+  <si>
+    <t>6a117760abdbecc</t>
+  </si>
+  <si>
+    <t>5740</t>
   </si>
 </sst>
 </file>
@@ -429,7 +468,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,16 +493,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -472,21 +511,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005BBDBF06F7BC974CBB85AC25FE00AFB5" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6a69697652624632dc096f01c805c491">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b2b1fa7a59e354d7f595b7732424404">
     <xsd:element name="properties">
@@ -600,24 +624,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0894F575-CBD1-4500-A28A-2C2DF44A3F5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7EDABB2-065E-4DA3-AF0A-B938AC9E3F4C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89FB17FC-A2B4-4B02-BF51-36A1DCC1E90B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -631,4 +653,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7EDABB2-065E-4DA3-AF0A-B938AC9E3F4C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0894F575-CBD1-4500-A28A-2C2DF44A3F5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/dataTest.xlsx
+++ b/data/dataTest.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
   <si>
     <t>token</t>
   </si>
@@ -107,6 +107,48 @@
   </si>
   <si>
     <t>5740</t>
+  </si>
+  <si>
+    <t>2b7f7e1afddcf0b</t>
+  </si>
+  <si>
+    <t>2452</t>
+  </si>
+  <si>
+    <t>d406069b71d9bdb</t>
+  </si>
+  <si>
+    <t>4735</t>
+  </si>
+  <si>
+    <t>07d4af0942da550</t>
+  </si>
+  <si>
+    <t>3235</t>
+  </si>
+  <si>
+    <t>270895dbd61f97e</t>
+  </si>
+  <si>
+    <t>3898</t>
+  </si>
+  <si>
+    <t>6b8806a6269e8dc</t>
+  </si>
+  <si>
+    <t>4818</t>
+  </si>
+  <si>
+    <t>01a03931b96b311</t>
+  </si>
+  <si>
+    <t>7447</t>
+  </si>
+  <si>
+    <t>b891d95d0002dcb</t>
+  </si>
+  <si>
+    <t>10384</t>
   </si>
 </sst>
 </file>
@@ -493,10 +535,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
